--- a/biology/Botanique/Tombeau_d'Askold/Tombeau_d'Askold.xlsx
+++ b/biology/Botanique/Tombeau_d'Askold/Tombeau_d'Askold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tombeau_d%27Askold</t>
+          <t>Tombeau_d'Askold</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,18 +490,20 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tombeau d'Askold (en ukrainien : Аскольдова могила) est un parc situé entre le parc Mariinskyi et la laure des Grottes de Kiev, dans le quartier de Petchersk, à Kiev, en Ukraine. C'est un monument inscrit au registre national des monuments d'Ukraine[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tombeau d'Askold (en ukrainien : Аскольдова могила) est un parc situé entre le parc Mariinskyi et la laure des Grottes de Kiev, dans le quartier de Petchersk, à Kiev, en Ukraine. C'est un monument inscrit au registre national des monuments d'Ukraine.
 Le parc a été créé par les Soviétiques au milieu des années 1930 à la place d'un ancien cimetière autour de l'église Saint-Nicolas, qui, selon l'histoire, marque l'endroit où le prince Askold de Kiev a été enterré au IXe siècle.
 Aux XVe et XVIe siècles, le tombeau d'Askold est occupé par les moines orthodoxes du monastère Saint-Nicolas. Ivan Mazepa fait déplacer le monastère sur une colline voisine, où une nouvelle cathédrale circulaire baroque est alors érigée : la cathédrale militaire Saint-Nicolas de Kiev. Il se situe sur une partie de la forteresse de Kiev.
 L'église Saint-Nicolas existante est une rotonde néoclassique conçue par Andreï Melenski en 1810.
 			L'église Saint-Nicolas d'après un dessin de Taras Chevtchenko.
-			Église Saint-Nicolas de Kiev classée[3].
+			Église Saint-Nicolas de Kiev classée.
 			en 1930,
 			chapelle st-André,
-			monument aux Ugarics classée[4].
-			Partie du mur de la forteresse classé[5].
+			monument aux Ugarics classée.
+			Partie du mur de la forteresse classé.
 			Mémorial aux morts de la bataille de Krouty.
 </t>
         </is>
